--- a/0.1.1/ValueSet-icd10-gvhd-codes.xlsx
+++ b/0.1.1/ValueSet-icd10-gvhd-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:47:55-06:00</t>
+    <t>2024-12-02T18:26:03-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
